--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/51.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/51.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08484886546229709</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.554072249845845</v>
+        <v>-1.559360954093415</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003400782451730362</v>
+        <v>0.00627966342458932</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1519234244382215</v>
+        <v>-0.1576229476764513</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.07663408069995235</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.566223677462286</v>
+        <v>-1.571918478643152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01289211775317351</v>
+        <v>0.01594099279113294</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.115403032785803</v>
+        <v>-0.1223224208430408</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.08050191208532274</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.634195332186974</v>
+        <v>-1.639284136006139</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04686551818700711</v>
+        <v>-0.04241891416933266</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1227820344264606</v>
+        <v>-0.1294763377493524</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.09935636188516669</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.770251184003524</v>
+        <v>-1.773148953205838</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09237985509853779</v>
+        <v>-0.08612470311048885</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1286090532135157</v>
+        <v>-0.1362068435120341</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1251635525730836</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.805735871074126</v>
+        <v>-1.80387616748231</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1159822718224416</v>
+        <v>-0.1066625046052202</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1259143324778489</v>
+        <v>-0.1332964821567492</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1477105372349285</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.629570076999032</v>
+        <v>-1.62738927350647</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1073031303875896</v>
+        <v>-0.09376656594440369</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1199251897212998</v>
+        <v>-0.1261756196519849</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1602464597538758</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.321144965227966</v>
+        <v>-1.321893411320144</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1239137541746758</v>
+        <v>-0.1070780456532436</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.08031499853376801</v>
+        <v>-0.08883988609473255</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1605437264212353</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.829362366016582</v>
+        <v>-0.8360157448423199</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05484107307463769</v>
+        <v>-0.03612913376061511</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0837007136636858</v>
+        <v>-0.09028640966720787</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1472532637592818</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3059380474192512</v>
+        <v>-0.3198791347766114</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04676635498236516</v>
+        <v>-0.02879577867447521</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01632797321465246</v>
+        <v>-0.02358262734472733</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1187356921799451</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2536131580501729</v>
+        <v>0.2340276381238284</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0834646107954907</v>
+        <v>-0.06447092205875529</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05971446455450507</v>
+        <v>0.05148391856922377</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.07449122244987913</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8955217660034129</v>
+        <v>0.8705452305866136</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1380940924384737</v>
+        <v>-0.1180284966801325</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1353020107976067</v>
+        <v>0.1290090823506465</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.01523039422298876</v>
       </c>
       <c r="E13" t="n">
-        <v>1.557305513401317</v>
+        <v>1.527578588276432</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2917120626009356</v>
+        <v>-0.2693893234226493</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2377328791353703</v>
+        <v>0.2313990261912563</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.05852206419832043</v>
       </c>
       <c r="E14" t="n">
-        <v>2.214087028031727</v>
+        <v>2.183077277322982</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5306560353099865</v>
+        <v>-0.5063232737137991</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3463039960653278</v>
+        <v>0.3415772166440618</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1444493241625857</v>
       </c>
       <c r="E15" t="n">
-        <v>2.905120772760761</v>
+        <v>2.872933655749283</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8220227148539568</v>
+        <v>-0.7974664425425448</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4842998264488804</v>
+        <v>0.4795903612379487</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2391571007598305</v>
       </c>
       <c r="E16" t="n">
-        <v>3.579155110979748</v>
+        <v>3.544773811313177</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.057745457431266</v>
+        <v>-1.033893558676636</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6464316660384577</v>
+        <v>0.6417804395350142</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3370003921682814</v>
       </c>
       <c r="E17" t="n">
-        <v>4.23505517490223</v>
+        <v>4.196261899638653</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.33484916270757</v>
+        <v>-1.309299684330617</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8187190769986671</v>
+        <v>0.8138018412637238</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4339517779121291</v>
       </c>
       <c r="E18" t="n">
-        <v>4.881026326207548</v>
+        <v>4.838164211515408</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.551672657695422</v>
+        <v>-1.526497795869338</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9782191566174298</v>
+        <v>0.971342267076467</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5268402111507743</v>
       </c>
       <c r="E19" t="n">
-        <v>5.368528380418554</v>
+        <v>5.325615897114533</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.768332454694658</v>
+        <v>-1.743160740906817</v>
       </c>
       <c r="G19" t="n">
-        <v>1.14353681090852</v>
+        <v>1.138523560007177</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6109204086735629</v>
       </c>
       <c r="E20" t="n">
-        <v>5.78434173374992</v>
+        <v>5.739878841611419</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.917661222751576</v>
+        <v>-1.893280453572189</v>
       </c>
       <c r="G20" t="n">
-        <v>1.270295718785107</v>
+        <v>1.265866428977767</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6838208698118565</v>
       </c>
       <c r="E21" t="n">
-        <v>6.082657707714433</v>
+        <v>6.042388002515076</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.121302307598534</v>
+        <v>-2.096539838782232</v>
       </c>
       <c r="G21" t="n">
-        <v>1.387415333562848</v>
+        <v>1.384040636566779</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7446807495670479</v>
       </c>
       <c r="E22" t="n">
-        <v>6.408995944095462</v>
+        <v>6.366772881166571</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.225291454866385</v>
+        <v>-2.202753075068481</v>
       </c>
       <c r="G22" t="n">
-        <v>1.485111552383739</v>
+        <v>1.482978756474377</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7939292979635133</v>
       </c>
       <c r="E23" t="n">
-        <v>6.531270471495463</v>
+        <v>6.494013438894276</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.314615465981078</v>
+        <v>-2.294204373025611</v>
       </c>
       <c r="G23" t="n">
-        <v>1.587518810434683</v>
+        <v>1.586275335328856</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8312459183468888</v>
       </c>
       <c r="E24" t="n">
-        <v>6.675530897981793</v>
+        <v>6.639965935936003</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.374777624835433</v>
+        <v>-2.356458403292175</v>
       </c>
       <c r="G24" t="n">
-        <v>1.587518810434683</v>
+        <v>1.589791694045842</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8553920332350103</v>
       </c>
       <c r="E25" t="n">
-        <v>6.749352394770795</v>
+        <v>6.717091298860616</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.376695567134738</v>
+        <v>-2.360147904112504</v>
       </c>
       <c r="G25" t="n">
-        <v>1.632010034917369</v>
+        <v>1.636710056013573</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8670251454102749</v>
       </c>
       <c r="E26" t="n">
-        <v>6.762267221661067</v>
+        <v>6.731844580084568</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.385446326439609</v>
+        <v>-2.370257041919057</v>
       </c>
       <c r="G26" t="n">
-        <v>1.673269798144023</v>
+        <v>1.679907436778548</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8672004679926656</v>
       </c>
       <c r="E27" t="n">
-        <v>6.705555312720604</v>
+        <v>6.679678438366421</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.302721390490969</v>
+        <v>-2.292236062114425</v>
       </c>
       <c r="G27" t="n">
-        <v>1.625608499151039</v>
+        <v>1.634448190536263</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8576918608062336</v>
       </c>
       <c r="E28" t="n">
-        <v>6.598177302284592</v>
+        <v>6.575786880284089</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.25164210897608</v>
+        <v>-2.245242147228871</v>
       </c>
       <c r="G28" t="n">
-        <v>1.585035008261271</v>
+        <v>1.595522697666497</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8411019102675096</v>
       </c>
       <c r="E29" t="n">
-        <v>6.458136821062469</v>
+        <v>6.438187702719104</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.164202985759145</v>
+        <v>-2.160664590774461</v>
       </c>
       <c r="G29" t="n">
-        <v>1.540241572107296</v>
+        <v>1.551667376908818</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8196466483956989</v>
       </c>
       <c r="E30" t="n">
-        <v>6.296727456249569</v>
+        <v>6.278182362962404</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.123196639611019</v>
+        <v>-2.12434646057913</v>
       </c>
       <c r="G30" t="n">
-        <v>1.469399693514916</v>
+        <v>1.481274093766008</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7961079839791095</v>
       </c>
       <c r="E31" t="n">
-        <v>6.031906609186335</v>
+        <v>6.018184310486836</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.958736825741038</v>
+        <v>-1.96896480199125</v>
       </c>
       <c r="G31" t="n">
-        <v>1.389282120240711</v>
+        <v>1.402862757219293</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7722216357049454</v>
       </c>
       <c r="E32" t="n">
-        <v>5.790003480529239</v>
+        <v>5.780293356569935</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.842356999950308</v>
+        <v>-1.855851065877219</v>
       </c>
       <c r="G32" t="n">
-        <v>1.316549844683649</v>
+        <v>1.33171394489826</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7488652922080993</v>
       </c>
       <c r="E33" t="n">
-        <v>5.45065755012978</v>
+        <v>5.445400326264637</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.7818879073673</v>
+        <v>-1.798296269697299</v>
       </c>
       <c r="G33" t="n">
-        <v>1.241077201836402</v>
+        <v>1.257503665386296</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7256893102807016</v>
       </c>
       <c r="E34" t="n">
-        <v>5.164891230619398</v>
+        <v>5.16214614127185</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.699231441250437</v>
+        <v>-1.717451499589053</v>
       </c>
       <c r="G34" t="n">
-        <v>1.12893148748197</v>
+        <v>1.14645346834029</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7003136352015485</v>
       </c>
       <c r="E35" t="n">
-        <v>4.772481967602652</v>
+        <v>4.776492568323726</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.653666735727024</v>
+        <v>-1.672605333794514</v>
       </c>
       <c r="G35" t="n">
-        <v>1.056243284460305</v>
+        <v>1.071986623711554</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6718558102235128</v>
       </c>
       <c r="E36" t="n">
-        <v>4.315150711908737</v>
+        <v>4.324519273718718</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.583043645792505</v>
+        <v>-1.603858474652585</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9945936775363208</v>
+        <v>1.011223189552863</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6397343692816271</v>
       </c>
       <c r="E37" t="n">
-        <v>3.959998481493177</v>
+        <v>3.971203923617717</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.549713790898963</v>
+        <v>-1.569636937926826</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9138779769960215</v>
+        <v>0.9298983436126199</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6037394341051482</v>
       </c>
       <c r="E38" t="n">
-        <v>3.629611867932163</v>
+        <v>3.642463734057583</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.45862294332061</v>
+        <v>-1.480752078146977</v>
       </c>
       <c r="G38" t="n">
-        <v>0.823549741681939</v>
+        <v>0.8402736948457588</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5647940950818162</v>
       </c>
       <c r="E39" t="n">
-        <v>3.211070739463583</v>
+        <v>3.228846137400431</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.43670708808518</v>
+        <v>-1.457862692085022</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7563706055848256</v>
+        <v>0.7716622013482618</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5241307347248535</v>
       </c>
       <c r="E40" t="n">
-        <v>2.811535891884708</v>
+        <v>2.833457256187062</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.436244326463518</v>
+        <v>-1.454330593176823</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6870933019990184</v>
+        <v>0.7021849973340494</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4836955045021642</v>
       </c>
       <c r="E41" t="n">
-        <v>2.460425742572649</v>
+        <v>2.484007697047975</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.407619214723543</v>
+        <v>-1.426222546718196</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6364476627520474</v>
+        <v>0.651369364021978</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4443682369905357</v>
       </c>
       <c r="E42" t="n">
-        <v>2.088614093777243</v>
+        <v>2.11478688372623</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.378661984948975</v>
+        <v>-1.395902216384581</v>
       </c>
       <c r="G42" t="n">
-        <v>0.570220808223321</v>
+        <v>0.5850339021738818</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.406491583127196</v>
       </c>
       <c r="E43" t="n">
-        <v>1.846712539139268</v>
+        <v>1.869590907067373</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.352684373371028</v>
+        <v>-1.367465986939163</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4964339398549874</v>
+        <v>0.5104553021875339</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3704606938857414</v>
       </c>
       <c r="E44" t="n">
-        <v>1.622712303967845</v>
+        <v>1.642448929729835</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.353936505582023</v>
+        <v>-1.36646963283538</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4240007279309724</v>
+        <v>0.4369092587447593</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3357968462246941</v>
       </c>
       <c r="E45" t="n">
-        <v>1.403826056921529</v>
+        <v>1.423112513214827</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.283651829758583</v>
+        <v>-1.295417622690306</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3712238667937603</v>
+        <v>0.3837137085212812</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3028713917302006</v>
       </c>
       <c r="E46" t="n">
-        <v>1.18103939049263</v>
+        <v>1.199715127366862</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.220977536386632</v>
+        <v>-1.232524540660494</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3297878134255197</v>
+        <v>0.3402424484291989</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2713172181962553</v>
       </c>
       <c r="E47" t="n">
-        <v>1.054699171702309</v>
+        <v>1.07049287956544</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.174481798552971</v>
+        <v>-1.185050549942944</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2564542625641206</v>
+        <v>0.2674975807191662</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2409139099737858</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8747998042714893</v>
+        <v>0.8881144320185719</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.099927595863003</v>
+        <v>-1.109222178774284</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1901487070793292</v>
+        <v>0.1991395043001987</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2124011347628338</v>
       </c>
       <c r="E49" t="n">
-        <v>0.714065693661627</v>
+        <v>0.7264784084522042</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.035285778589426</v>
+        <v>-1.044083758467937</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1448594549021445</v>
+        <v>0.1542012583870641</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1857429628560108</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6337655341693511</v>
+        <v>0.6442060030009386</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9745404456506296</v>
+        <v>-0.9822743886031405</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1226264348137723</v>
+        <v>0.1304083853494828</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1615524378544517</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5131185425407747</v>
+        <v>0.5224272916241469</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9550761251966252</v>
+        <v>-0.9617735765577596</v>
       </c>
       <c r="G51" t="n">
-        <v>0.107596126224472</v>
+        <v>0.1134624954895597</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1399475027654331</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3553845123761115</v>
+        <v>0.3635316353479638</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9498944542493034</v>
+        <v>-0.9531668400024875</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05410151236794682</v>
+        <v>0.06055184272703704</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1205893787123097</v>
       </c>
       <c r="E53" t="n">
-        <v>0.297742358134959</v>
+        <v>0.3050599730298859</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9313713972298369</v>
+        <v>-0.9369985155884869</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05717084965448316</v>
+        <v>0.06080525980556645</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1030178542465067</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1732941103284414</v>
+        <v>0.1791116850007687</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8918115746541867</v>
+        <v>-0.8959866603734368</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01616765154460024</v>
+        <v>0.01955494069363932</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.0866118983090139</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1094518947684855</v>
+        <v>0.1111644275724606</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.900393126903518</v>
+        <v>-0.9018152531796132</v>
       </c>
       <c r="G55" t="n">
-        <v>0.005550892571427101</v>
+        <v>0.007050932794026656</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.071079406359427</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0268395011870189</v>
+        <v>0.02862758690881648</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9076336148615012</v>
+        <v>-0.9072117777369927</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0310670882665121</v>
+        <v>-0.02933724125220264</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.05620002034744347</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07367421186100041</v>
+        <v>-0.07297219933290031</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9339701027991043</v>
+        <v>-0.9311478865146122</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.07148475126327115</v>
+        <v>-0.06959278027946773</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.04171390661721668</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.115465993550655</v>
+        <v>-0.1162655952642757</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.930887386350037</v>
+        <v>-0.926626516588676</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09849491938479096</v>
+        <v>-0.09698071299009971</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.02772460290449456</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1934602150302254</v>
+        <v>-0.1943904603309141</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9419802861074036</v>
+        <v>-0.9372849870685636</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.115628117520149</v>
+        <v>-0.1139612312706915</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.01397215300217868</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2771885881686941</v>
+        <v>-0.2784572475804625</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9729538343763585</v>
+        <v>-0.9653277117336566</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1257773928142958</v>
+        <v>-0.1247117818691752</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.0006297791491094333</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3598781086871045</v>
+        <v>-0.3616079557014139</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9549502036669212</v>
+        <v>-0.9471084404046012</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1640827221502693</v>
+        <v>-0.1619436301644217</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.01199728540224627</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4817575572876593</v>
+        <v>-0.4832040808601347</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9865376193931834</v>
+        <v>-0.9745790091191014</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1835375984895458</v>
+        <v>-0.182067464630251</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.02351002144409932</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5270216251589032</v>
+        <v>-0.5295180194852861</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.005029983039785</v>
+        <v>-0.993162665874738</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2175962242362501</v>
+        <v>-0.2153123224912428</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.03375010664609201</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6731850407628851</v>
+        <v>-0.6737878900863432</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.043875987943925</v>
+        <v>-1.030688855745668</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2650151242845546</v>
+        <v>-0.2623172555106453</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.04320498638626303</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8414413887534434</v>
+        <v>-0.8383673294095432</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.107474230540079</v>
+        <v>-1.091613626864293</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3258777216478883</v>
+        <v>-0.3221268340818288</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.05149206464654492</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.949863760876438</v>
+        <v>-0.9457264516160991</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.133496701662983</v>
+        <v>-1.118005992480702</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.362519312772647</v>
+        <v>-0.357844475982384</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.05838592054967395</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.034817507900839</v>
+        <v>-1.027403877839513</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.190210971632129</v>
+        <v>-1.172749590509979</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4130059760883666</v>
+        <v>-0.4087781607285529</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.06290541196730372</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.128223737606626</v>
+        <v>-1.117866691788467</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.24873536359077</v>
+        <v>-1.227965394275647</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4453410508972466</v>
+        <v>-0.4394022767525791</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.06426068532645776</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.282191140014016</v>
+        <v>-1.265892959022508</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.303670204943285</v>
+        <v>-1.282725519505698</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4775077056601475</v>
+        <v>-0.4707299793238267</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.06041530836247525</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.337386481531107</v>
+        <v>-1.319195542546235</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.384970653587148</v>
+        <v>-1.362801381273188</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5131623867958507</v>
+        <v>-0.5047067560762234</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.05089540532409479</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.395279691822107</v>
+        <v>-1.374464075952466</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.413973529916234</v>
+        <v>-1.390639483452512</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5664083056312104</v>
+        <v>-0.5566163326775987</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.03487430367435004</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.472557734601485</v>
+        <v>-1.448383948936549</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.463037279946298</v>
+        <v>-1.439524582312308</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5508207942729696</v>
+        <v>-0.5408336429483167</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.01252253577580035</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.508457962720111</v>
+        <v>-1.480231077817826</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.468556577995139</v>
+        <v>-1.446225968721246</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5778829050254923</v>
+        <v>-0.5666916290730445</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.01494959751142982</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.555299984760459</v>
+        <v>-1.524416155581418</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.504215981188206</v>
+        <v>-1.481291966705583</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.584581930405748</v>
+        <v>-0.5735811107669776</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.0466851655353864</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.54805241371643</v>
+        <v>-1.514850841381274</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.494558586869466</v>
+        <v>-1.473627280594409</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6057587836637275</v>
+        <v>-0.5936105040855288</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.08101856268847035</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.466626043542864</v>
+        <v>-1.432187292178365</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.557521712750175</v>
+        <v>-1.532975671563052</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5881706940023136</v>
+        <v>-0.5756493718923666</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1166737458873088</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.426414577050995</v>
+        <v>-1.388477568189406</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.56877044040055</v>
+        <v>-1.543418501423321</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5626810283519703</v>
+        <v>-0.5509073653246411</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1533864069668265</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.25294665174981</v>
+        <v>-1.216922076120601</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.515515864460024</v>
+        <v>-1.493262382123074</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5244402337999701</v>
+        <v>-0.5119960386269669</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1909184472322744</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.134907022795668</v>
+        <v>-1.098603845781989</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.494101334314728</v>
+        <v>-1.475113154644917</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5242214451421093</v>
+        <v>-0.5111791227030118</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2298427925978209</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9579675983224546</v>
+        <v>-0.9222326422115651</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.460525932438263</v>
+        <v>-1.443832672647308</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5127814741684958</v>
+        <v>-0.4987978882948606</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2700176883638082</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8133388513617409</v>
+        <v>-0.7772702031971357</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.429293458023854</v>
+        <v>-1.415780503867488</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4821888385268957</v>
+        <v>-0.4693117880955348</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.3106857666046737</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6126828937783293</v>
+        <v>-0.5791122139592282</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.423566389451001</v>
+        <v>-1.412696213399299</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4376850218912401</v>
+        <v>-0.425859416232908</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3510644592237507</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4088159371874642</v>
+        <v>-0.3753696048789458</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.340845388550165</v>
+        <v>-1.334257331517961</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3538999840644045</v>
+        <v>-0.3430864727010687</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3893116373888475</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2220774566745932</v>
+        <v>-0.1905577237705469</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.324134814548876</v>
+        <v>-1.318089794113521</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3327687773609427</v>
+        <v>-0.3217380513588675</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.4239151300138187</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.03031155908828777</v>
+        <v>-0.0004114918600599043</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.203606661363958</v>
+        <v>-1.20020835408107</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3021682716237361</v>
+        <v>-0.2897854631964635</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.4532199270596602</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2299698168291153</v>
+        <v>0.2567249938529844</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.102874946667639</v>
+        <v>-1.101714107565679</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2339471348683216</v>
+        <v>-0.2228707623117287</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.4753235549296468</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4618181113393427</v>
+        <v>0.4855999662430748</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9769061963899445</v>
+        <v>-0.9792160694504533</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1734591540558575</v>
+        <v>-0.1628502651782909</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.4886967717316317</v>
       </c>
       <c r="E88" t="n">
-        <v>0.636565714186145</v>
+        <v>0.6588349367143072</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8279945434001716</v>
+        <v>-0.8317714022817326</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1480466153424579</v>
+        <v>-0.1381208507635358</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.4917200448399287</v>
       </c>
       <c r="E89" t="n">
-        <v>0.818530194704111</v>
+        <v>0.8361796711112557</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7086177852024849</v>
+        <v>-0.713387063140026</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09521938559336424</v>
+        <v>-0.08597359727484399</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.4834944228740156</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9549819123296677</v>
+        <v>0.9697556558021959</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5345060860806879</v>
+        <v>-0.5404936548181158</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07711344364104242</v>
+        <v>-0.0679117278579186</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.463587310261525</v>
       </c>
       <c r="E91" t="n">
-        <v>1.073437869341394</v>
+        <v>1.086810735795964</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3349928663793406</v>
+        <v>-0.3431919319821959</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09507614985332587</v>
+        <v>-0.08695578520653562</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.431860024529391</v>
       </c>
       <c r="E92" t="n">
-        <v>1.1346310107202</v>
+        <v>1.145414615720231</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1979745018701157</v>
+        <v>-0.204823059066895</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05645286865484959</v>
+        <v>-0.04873230486486972</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.3885346687257506</v>
       </c>
       <c r="E93" t="n">
-        <v>1.173578539857665</v>
+        <v>1.182481192007741</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.09894981091084686</v>
+        <v>-0.1053230143329933</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0553069827345427</v>
+        <v>-0.04884406022248207</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.3350398498166816</v>
       </c>
       <c r="E94" t="n">
-        <v>1.153986723854835</v>
+        <v>1.160520477227354</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04965805638851498</v>
+        <v>0.04053504156145619</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02115548985968167</v>
+        <v>-0.01571410575734519</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.274312442364084</v>
       </c>
       <c r="E95" t="n">
-        <v>1.165503821765392</v>
+        <v>1.168776207518576</v>
       </c>
       <c r="F95" t="n">
-        <v>0.126174273913184</v>
+        <v>0.1173802290824771</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.05473561379351054</v>
+        <v>-0.05033623034947512</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2111419884932852</v>
       </c>
       <c r="E96" t="n">
-        <v>1.086695832400109</v>
+        <v>1.089222133089797</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2017539500606791</v>
+        <v>0.1933612801059039</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08602553990584691</v>
+        <v>-0.08253751353304459</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1525777451499222</v>
       </c>
       <c r="E97" t="n">
-        <v>1.035124669909814</v>
+        <v>1.037057565390771</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2481402935654104</v>
+        <v>0.2391715326122391</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04802871831764831</v>
+        <v>-0.04656488053483867</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1048436942788102</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9213655859560489</v>
+        <v>0.9243074276937598</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2289907769356662</v>
+        <v>0.221016796067157</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1074337739746576</v>
+        <v>-0.1056079117939488</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.07122805639997479</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8866269839489427</v>
+        <v>0.8877492595824301</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2136818669618958</v>
+        <v>0.2071071890922228</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09444811622392689</v>
+        <v>-0.09295279805869124</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.04925889113150506</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8335998537714439</v>
+        <v>0.8353265527475107</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2033437093731928</v>
+        <v>0.197245959297274</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09637943768576283</v>
+        <v>-0.09501791114583774</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.03522922643127692</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7785847374437422</v>
+        <v>0.7783895590727009</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1853432267019982</v>
+        <v>0.179772773031715</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08285703941466863</v>
+        <v>-0.08236751946794411</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.02051961311482272</v>
       </c>
       <c r="E102" t="n">
-        <v>0.766360904947721</v>
+        <v>0.7666662646572534</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1582181551846234</v>
+        <v>0.1547332768500637</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06649511064874798</v>
+        <v>-0.06733721087864385</v>
       </c>
     </row>
   </sheetData>
